--- a/docs/odh/shr-core-EpisodeOfCare-model.xlsx
+++ b/docs/odh/shr-core-EpisodeOfCare-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="93">
   <si>
     <t>Path</t>
   </si>
@@ -143,7 +143,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Metadata-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Metadata-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -160,10 +160,6 @@
     <t>A human language, spoken or written.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0023008
-</t>
-  </si>
-  <si>
     <t>shr-core-EpisodeOfCare-model.implicitRules</t>
   </si>
   <si>
@@ -177,7 +173,7 @@
     <t>shr-core-EpisodeOfCare-model.narrative</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Narrative-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Narrative-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -199,7 +195,7 @@
     <t>shr-core-EpisodeOfCare-model.statusHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-StatusHistory-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-StatusHistory-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -212,7 +208,7 @@
     <t>shr-core-EpisodeOfCare-model.statusHistory.timePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -220,44 +216,44 @@
   </si>
   <si>
     <t>A period of time defined by a start and end time, date, or year.
-If the start element is missing, the start of the period is not known. If the end element is missing, it means that the period is ongoing, or the start may be in the past, and the end date in the future, which means that period is expected/planned to end at the specified time. The end value includes any matching date/time. For example, the period 2011-05-23 to 2011-05-27 includes all the times from the start of the 23rd May through to the end of the 27th of May.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1948053
+If the start date/time is missing, the start of the period is not known. If the end date/time is missing, it means that the period is ongoing.</t>
+  </si>
+  <si>
+    <t>shr-core-EpisodeOfCare-model.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>shr-core-EpisodeOfCare-model.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Identifier-model {[]} {[]}
+    <t>Business identifier or external id for this resource.</t>
+  </si>
+  <si>
+    <t>shr-core-EpisodeOfCare-model.timePeriod</t>
+  </si>
+  <si>
+    <t>shr-core-EpisodeOfCare-model.encounterDiagnosis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-EncounterDiagnosis-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>Business identifier or external id for this resource.</t>
-  </si>
-  <si>
-    <t>shr-core-EpisodeOfCare-model.timePeriod</t>
-  </si>
-  <si>
-    <t>shr-core-EpisodeOfCare-model.encounterDiagnosis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EncounterDiagnosis-model {[]} {[]}
+    <t>A diagnosis, which is a disease or injury determined to be present through evaluation of patient history, examination, and/or review of laboratory data. This element is not a stand-alone representation of the condition that was diagnosed, but is meant to be used as an sub-structure in a resource, such as Encounter.</t>
+  </si>
+  <si>
+    <t>shr-core-EpisodeOfCare-model.subjectOfRecord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient-model]]}
 </t>
   </si>
   <si>
-    <t>A diagnosis, which is a disease or injury determined to be present through evaluation of patient history, examination, and/or review of laboratory data. This element is not a stand-alone representation of the condition that was diagnosed, but is meant to be used as an sub-structure in a resource, such as Encounter.</t>
-  </si>
-  <si>
-    <t>shr-core-EpisodeOfCare-model.patientSubjectOfRecord</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Patient-model]]}
-</t>
-  </si>
-  <si>
-    <t>The SubjectOfRecord when restricted to being a Patient resource.</t>
+    <t>The subject of a clinical statement, often called the Patient or the Subject. The SubjectOfRecord typically identifies the clinical record in which this statement is contained. If the statement should be in John Doe's patient record, then John Doe is the subject of record. When there is no patient, the SubjectOfRecord can also be a location, group, or other entity that statement pertains to. For example, observations concerning a hospital ward would have a Location as the SubjectOfRecord.</t>
+  </si>
+  <si>
+    <t>The subject of a clinical statement, often called the Patient or the Subject. The SubjectOfRecord typically identifies the clinical record in which this statement is contained. If the statement should be in John Doe's patient record, then John Doe is the subject of record. When there is no patient, the SubjectOfRecord can also be a location, group, or other entity that statement pertains to. For example, observations concerning a hospital ward would have a Location as the SubjectOfRecord.
+Note that the word 'Subject' is used here in the sense of a person or entity subjected to observations or actions, not subject as in a conceptual topic, like heart disease.</t>
   </si>
   <si>
     <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1299487
@@ -283,35 +279,31 @@
     <t>shr-core-EpisodeOfCare-model.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Organization-model]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Organization-model]]}
 </t>
   </si>
   <si>
-    <t>A social or legal structure formed by human beings.</t>
-  </si>
-  <si>
-    <t>A social or legal structure formed by human beings.
-Organization type is restricted to 0..1 in FHIR DSTU2, similarly restricted here.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1561598
+    <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action. Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
+  </si>
+  <si>
+    <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action. Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.
+Organization type is restricted to 0..1 in FHIR DSTU2, similarly restricted here. Other required attributes come from STU 3 mapping to us-core-organization.</t>
+  </si>
+  <si>
+    <t>shr-core-EpisodeOfCare-model.referralBasedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ReferralRequest-model]]}
 </t>
   </si>
   <si>
-    <t>shr-core-EpisodeOfCare-model.referralRequest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferralRequest-model]]}
-</t>
-  </si>
-  <si>
-    <t>Used to record and send details about a request for referral service or transfer of a patient to the care of another provider or provider organization.</t>
+    <t>Indicates any plans, proposals or orders that this request is intended to satisfy - in whole or in part.</t>
   </si>
   <si>
     <t>shr-core-EpisodeOfCare-model.careManager</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Practitioner-model]]}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Practitioner-model]]}
 </t>
   </si>
   <si>
@@ -468,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ18"/>
+  <dimension ref="A1:AI18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -880,7 +872,7 @@
         <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>36</v>
@@ -912,7 +904,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -935,13 +927,13 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -992,7 +984,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
@@ -1009,7 +1001,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1032,13 +1024,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1089,7 +1081,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
@@ -1106,7 +1098,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1132,10 +1124,10 @@
         <v>45</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1162,11 +1154,11 @@
         <v>36</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>36</v>
@@ -1184,7 +1176,7 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>41</v>
@@ -1201,7 +1193,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1224,13 +1216,13 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="K8" t="s" s="2">
-        <v>60</v>
-      </c>
       <c r="L8" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1281,7 +1273,7 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>37</v>
@@ -1298,7 +1290,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1324,10 +1316,10 @@
         <v>45</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1354,11 +1346,11 @@
         <v>36</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z9" t="s" s="2">
         <v>36</v>
@@ -1376,7 +1368,7 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>41</v>
@@ -1393,7 +1385,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1416,13 +1408,13 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>64</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>65</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1458,7 +1450,7 @@
         <v>36</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>36</v>
@@ -1473,7 +1465,7 @@
         <v>36</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
@@ -1490,7 +1482,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1513,13 +1505,13 @@
         <v>36</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1570,7 +1562,7 @@
         <v>36</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>37</v>
@@ -1587,7 +1579,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1610,13 +1602,13 @@
         <v>36</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>64</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>65</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1652,7 +1644,7 @@
         <v>36</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>36</v>
@@ -1667,7 +1659,7 @@
         <v>36</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>37</v>
@@ -1684,7 +1676,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1707,13 +1699,13 @@
         <v>36</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1764,7 +1756,7 @@
         <v>36</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>37</v>
@@ -1781,7 +1773,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -1804,13 +1796,13 @@
         <v>36</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>75</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1846,7 +1838,7 @@
         <v>36</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>36</v>
@@ -1861,7 +1853,7 @@
         <v>36</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -1878,7 +1870,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -1904,10 +1896,10 @@
         <v>45</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1934,15 +1926,15 @@
         <v>36</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z15" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="AA15" t="s" s="2">
         <v>36</v>
       </c>
@@ -1956,7 +1948,7 @@
         <v>36</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>37</v>
@@ -1973,7 +1965,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -1996,13 +1988,13 @@
         <v>36</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2038,7 +2030,7 @@
         <v>36</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>36</v>
@@ -2053,7 +2045,7 @@
         <v>36</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>37</v>
@@ -2070,7 +2062,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2093,13 +2085,13 @@
         <v>36</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2150,7 +2142,7 @@
         <v>36</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>37</v>
@@ -2167,7 +2159,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2190,13 +2182,13 @@
         <v>36</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2232,7 +2224,7 @@
         <v>36</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>36</v>
@@ -2247,7 +2239,7 @@
         <v>36</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>37</v>
